--- a/testcase/case_id.xlsx
+++ b/testcase/case_id.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xm210407/PycharmProjects/Kika/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C0FF33-DC25-934A-ACEF-1270A262BCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CEF223-EEA7-7249-AE6F-AF84B012BA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9440" windowWidth="28800" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5700" windowWidth="28800" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>case</t>
   </si>
@@ -45,6 +45,30 @@
   </si>
   <si>
     <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -446,6 +470,54 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/testcase/case_id.xlsx
+++ b/testcase/case_id.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xm210407/PycharmProjects/Kika/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CEF223-EEA7-7249-AE6F-AF84B012BA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D860D17-BC19-7C46-99E5-5DD64B7ECC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5700" windowWidth="28800" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>case</t>
   </si>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -518,6 +522,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/testcase/case_id.xlsx
+++ b/testcase/case_id.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xm210407/PycharmProjects/Kika/testcase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D860D17-BC19-7C46-99E5-5DD64B7ECC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5700" windowWidth="28800" windowHeight="11420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>case</t>
   </si>
@@ -28,59 +22,83 @@
     <t>pool_id</t>
   </si>
   <si>
-    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test_InputMethod_SCB_func_01_01_01_0012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>test_InputMethod_SCB_func_01_01_01_0001</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_01_01_0002</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_01_01_0003</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_01_01_0008</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_01_01_0009</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_01_01_00010</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_01_01_00011</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_01_01_00013</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_01_01_00016</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_01_01_00036</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_02_0003</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_03_0010</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_04_0002</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_05_0005</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_05_0034</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_07_0001</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_08_0001</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_08_0005</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_08_0006</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_01_09_0002</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_02_02_02_0003</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_func_03_01_01_0002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,30 +107,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -120,9 +453,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -130,24 +705,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -405,25 +1024,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="15" max="15" width="4.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="4.66071428571429" customWidth="1"/>
+    <col min="16" max="16" width="9.16071428571429" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,106 +1051,186 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testcase/case_id.xlsx
+++ b/testcase/case_id.xlsx
@@ -22,70 +22,70 @@
     <t>pool_id</t>
   </si>
   <si>
-    <t>test_InputMethod_SCB_func_01_01_01_0001</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_01_01_0002</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_01_01_0003</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_01_01_0008</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_01_01_0009</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_01_01_00010</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_01_01_00011</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_01_01_00013</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_01_01_00016</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_01_01_00036</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_02_0003</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_03_0010</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_04_0002</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_05_0005</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_05_0034</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_07_0001</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_08_0001</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_08_0005</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_08_0006</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_01_09_0002</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_02_02_02_0003</t>
-  </si>
-  <si>
-    <t>test_InputMethod_SCB_func_03_01_01_0002</t>
+    <t>test_InputMethod_SCB_Func_01_01_01_0001</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_01_01_0002</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_01_01_0003</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_01_01_0008</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_01_01_0009</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_01_01_00010</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_01_01_00011</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_01_01_00013</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_01_01_00016</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_01_01_00036</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_02_0003</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_03_0010</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_04_0002</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_05_0005</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_05_0034</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_07_0001</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_08_0001</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_08_0005</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_08_0006</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_01_09_0002</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_02_02_02_0003</t>
+  </si>
+  <si>
+    <t>test_InputMethod_SCB_Func_03_01_01_0002</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelCol="4"/>
